--- a/Financials/Yearly/HBI_YR_FIN.xlsx
+++ b/Financials/Yearly/HBI_YR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9317367C-892E-425A-B857-C78E351585D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HBI" sheetId="6" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,142 +689,154 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43463</v>
+      </c>
+      <c r="E7" s="2">
         <v>43099</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>42735</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42371</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42007</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>41636</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41272</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>40908</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>6804000</v>
+      </c>
+      <c r="E8" s="3">
         <v>6471400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>6028200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5731500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5324700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4627800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4525700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4434300</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>4109100</v>
+      </c>
+      <c r="E9" s="3">
         <v>3783000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3752200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3595200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3420300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3016100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3105700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2941100</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2694900</v>
+      </c>
+      <c r="E10" s="3">
         <v>2688500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2276000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2136300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1904400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1611700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1420000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1493200</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -801,35 +848,39 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>59300</v>
+      </c>
+      <c r="E12" s="3">
         <v>65500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>70100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>62300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>63300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>51300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>48300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>47100</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -854,17 +905,20 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>80200</v>
+      </c>
+      <c r="E14" s="3">
         <v>335700</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>10</v>
@@ -878,12 +932,15 @@
       <c r="I14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -908,9 +965,12 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -919,62 +979,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5936000</v>
+      </c>
+      <c r="E17" s="3">
         <v>5748300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5252600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5136400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4760800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4112600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4085600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3987200</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>868000</v>
+      </c>
+      <c r="E18" s="3">
         <v>723100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>775600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>595100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>564000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>515200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>440100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>447100</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -986,62 +1053,69 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-221100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-185800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-204400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-121200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-99000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-119400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-177200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-162600</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>778700</v>
+      </c>
+      <c r="E21" s="3">
         <v>659800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>674400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>577800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>563200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>486700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>356000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>375300</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1066,63 +1140,72 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>646900</v>
+      </c>
+      <c r="E23" s="3">
         <v>537300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>571200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>473900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>465000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>395800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>262900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>284600</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>93800</v>
+      </c>
+      <c r="E24" s="3">
         <v>16300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>34300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>45000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>60400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>65300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>30500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>42000</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1147,63 +1230,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>553100</v>
+      </c>
+      <c r="E26" s="3">
         <v>521000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>536900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>428900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>404500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>330500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>232400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>242600</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>553100</v>
+      </c>
+      <c r="E27" s="3">
         <v>521000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>536900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>428900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>404500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>330500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>232400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>242600</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1228,36 +1320,42 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
         <v>-459100</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>2500</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="G29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
       <c r="H29" s="3">
         <v>0</v>
       </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>-67800</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>24100</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1282,9 +1380,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1309,63 +1410,72 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>221100</v>
+      </c>
+      <c r="E32" s="3">
         <v>185800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>204400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>121200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>99000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>119400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>177200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>162600</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>553100</v>
+      </c>
+      <c r="E33" s="3">
         <v>61900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>539400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>428900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>404500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>330500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>164700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>266700</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1390,68 +1500,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>553100</v>
+      </c>
+      <c r="E35" s="3">
         <v>61900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>539400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>428900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>404500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>330500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>164700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>266700</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43463</v>
+      </c>
+      <c r="E38" s="2">
         <v>43099</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>42735</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42371</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42007</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>41636</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41272</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>40908</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1463,8 +1582,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1476,35 +1596,39 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>433000</v>
+      </c>
+      <c r="E41" s="3">
         <v>421600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>460200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>319200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>239900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>115900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>42800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>35300</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1529,117 +1653,132 @@
       <c r="J42" s="3">
         <v>0</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>870900</v>
+      </c>
+      <c r="E43" s="3">
         <v>903300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>836900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>680400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>672000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>578600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>506300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>470700</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2054500</v>
+      </c>
+      <c r="E44" s="3">
         <v>1875000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1840600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1814600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1537200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1283300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1253100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1607600</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>159200</v>
+      </c>
+      <c r="E45" s="3">
         <v>186500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>183400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>103700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>316100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>265900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>225300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>217200</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3517600</v>
+      </c>
+      <c r="E46" s="3">
         <v>3386400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3321200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2917900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2550200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2243700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2027500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2330800</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1664,63 +1803,72 @@
       <c r="J47" s="3">
         <v>0</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>607700</v>
+      </c>
+      <c r="E48" s="3">
         <v>624000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1384900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1300900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1348800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>579900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>596200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>635400</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2797100</v>
+      </c>
+      <c r="E49" s="3">
         <v>2569900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3669500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2235300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2105500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1004100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>553400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>603100</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1745,9 +1893,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1772,36 +1923,42 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>333600</v>
+      </c>
+      <c r="E52" s="3">
         <v>314600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>532900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>494400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>642800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>262400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>454600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>465400</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1826,36 +1983,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7256000</v>
+      </c>
+      <c r="E54" s="3">
         <v>6894800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6930500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5597600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5208200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4090000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3631700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4034700</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1867,8 +2030,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1880,170 +2044,189 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1029900</v>
+      </c>
+      <c r="E57" s="3">
         <v>867600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>761600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>673000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>621200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>466300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>403600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>451500</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>446400</v>
+      </c>
+      <c r="E58" s="3">
         <v>261500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>234800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>370600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>369800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>218000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>200100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>230000</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>553900</v>
+      </c>
+      <c r="E59" s="3">
         <v>649600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1248700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>920700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>987100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>315000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>272000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>252200</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2030200</v>
+      </c>
+      <c r="E60" s="3">
         <v>1778700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1625700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1503900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1482400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>999300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>875700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>933700</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3534200</v>
+      </c>
+      <c r="E61" s="3">
         <v>3702100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3507700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2232700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1614000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1467000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1317500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1807800</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>721300</v>
+      </c>
+      <c r="E62" s="3">
         <v>727800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>573200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>585100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>725000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>393100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>551700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>612100</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2068,9 +2251,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2095,9 +2281,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2122,36 +2311,42 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6285700</v>
+      </c>
+      <c r="E66" s="3">
         <v>6208600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5706600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4321700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3821400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2859400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2744800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3353600</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2163,8 +2358,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2189,9 +2385,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2216,9 +2415,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2243,9 +2445,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2270,36 +2475,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1184700</v>
+      </c>
+      <c r="E72" s="3">
         <v>850300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1396100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1389300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1464400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1181400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>911500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>746800</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2324,9 +2535,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2351,9 +2565,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2378,36 +2595,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>970300</v>
+      </c>
+      <c r="E76" s="3">
         <v>686200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1223900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1275900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1386800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1230600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>886900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>681100</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2432,68 +2655,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43463</v>
+      </c>
+      <c r="E80" s="2">
         <v>43099</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>42735</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42371</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42007</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>41636</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41272</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>40908</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>553100</v>
+      </c>
+      <c r="E81" s="3">
         <v>61900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>539400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>428900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>404500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>330500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>164700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>266700</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2505,35 +2737,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>131800</v>
+      </c>
+      <c r="E83" s="3">
         <v>122500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>103200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>103900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>98200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>90900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>93000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>90700</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2558,9 +2794,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2585,9 +2824,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2612,9 +2854,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2639,9 +2884,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2666,36 +2914,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>643400</v>
+      </c>
+      <c r="E89" s="3">
         <v>655700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>605600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>227000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>508100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>591300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>553600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>173500</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2707,35 +2961,39 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-86300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-87000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-83400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-99400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-64300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-43600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-41000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-90100</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2760,9 +3018,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2787,36 +3048,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-418700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-104500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-966600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-276800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-358300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-597400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-27900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-85600</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2828,35 +3095,39 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-216300</v>
+      </c>
+      <c r="E96" s="3">
         <v>-219900</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-167400</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-161300</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-119600</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-59400</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
       <c r="J96" s="3">
         <v>0</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2881,9 +3152,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2908,9 +3182,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2935,88 +3212,100 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-200500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-585800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>511100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>133000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-23800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>93800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-517800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-95000</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E101" s="3">
         <v>-4100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-8900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-3900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-2000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-14600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1100</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>34200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-38700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>141100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>79300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>124000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>73100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>7500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-8300</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Financials/Yearly/HBI_YR_FIN.xlsx
+++ b/Financials/Yearly/HBI_YR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9317367C-892E-425A-B857-C78E351585D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="HBI" sheetId="6" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
   <si>
     <t>HBI</t>
   </si>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,34 +654,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="1"/>
+    <col min="9" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
@@ -746,7 +711,7 @@
       </c>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -776,7 +741,7 @@
       </c>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -806,7 +771,7 @@
       </c>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -836,7 +801,7 @@
       </c>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -850,7 +815,7 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -880,7 +845,7 @@
       </c>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -910,7 +875,7 @@
       </c>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -940,7 +905,7 @@
       </c>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -970,7 +935,7 @@
       </c>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -981,7 +946,7 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1011,7 +976,7 @@
       </c>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1041,7 +1006,7 @@
       </c>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1055,7 +1020,7 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1085,7 +1050,7 @@
       </c>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1115,7 +1080,7 @@
       </c>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1145,7 +1110,7 @@
       </c>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1175,12 +1140,12 @@
       </c>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>93800</v>
+        <v>96700</v>
       </c>
       <c r="E24" s="3">
         <v>16300</v>
@@ -1205,7 +1170,7 @@
       </c>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,12 +1200,12 @@
       </c>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>553100</v>
+        <v>550200</v>
       </c>
       <c r="E26" s="3">
         <v>521000</v>
@@ -1265,12 +1230,12 @@
       </c>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>553100</v>
+        <v>550200</v>
       </c>
       <c r="E27" s="3">
         <v>521000</v>
@@ -1295,7 +1260,7 @@
       </c>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1325,12 +1290,12 @@
       </c>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>2900</v>
       </c>
       <c r="E29" s="3">
         <v>-459100</v>
@@ -1355,7 +1320,7 @@
       </c>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1385,7 +1350,7 @@
       </c>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1415,7 +1380,7 @@
       </c>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1445,7 +1410,7 @@
       </c>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1475,7 +1440,7 @@
       </c>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1505,7 +1470,7 @@
       </c>
       <c r="L34" s="3"/>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1535,12 +1500,12 @@
       </c>
       <c r="L35" s="3"/>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1570,7 +1535,7 @@
       </c>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1584,7 +1549,7 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1598,7 +1563,7 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1628,37 +1593,37 @@
       </c>
       <c r="L41" s="3"/>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
+        <v>12400</v>
       </c>
       <c r="E42" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F42" s="3">
-        <v>0</v>
+        <v>4400</v>
       </c>
       <c r="G42" s="3">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>3000</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
       </c>
       <c r="L42" s="3"/>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1688,7 +1653,7 @@
       </c>
       <c r="L43" s="3"/>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1718,24 +1683,24 @@
       </c>
       <c r="L44" s="3"/>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>159200</v>
+        <v>146800</v>
       </c>
       <c r="E45" s="3">
-        <v>186500</v>
+        <v>186400</v>
       </c>
       <c r="F45" s="3">
-        <v>183400</v>
+        <v>179100</v>
       </c>
       <c r="G45" s="3">
-        <v>103700</v>
+        <v>102200</v>
       </c>
       <c r="H45" s="3">
-        <v>316100</v>
+        <v>313200</v>
       </c>
       <c r="I45" s="3">
         <v>265900</v>
@@ -1748,7 +1713,7 @@
       </c>
       <c r="L45" s="3"/>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1778,7 +1743,7 @@
       </c>
       <c r="L46" s="3"/>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1808,7 +1773,7 @@
       </c>
       <c r="L47" s="3"/>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1838,7 +1803,7 @@
       </c>
       <c r="L48" s="3"/>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1868,7 +1833,7 @@
       </c>
       <c r="L49" s="3"/>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1898,7 +1863,7 @@
       </c>
       <c r="L50" s="3"/>
     </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1928,7 +1893,7 @@
       </c>
       <c r="L51" s="3"/>
     </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1958,7 +1923,7 @@
       </c>
       <c r="L52" s="3"/>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1988,7 +1953,7 @@
       </c>
       <c r="L53" s="3"/>
     </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2018,7 +1983,7 @@
       </c>
       <c r="L54" s="3"/>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2032,7 +1997,7 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
     </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2046,7 +2011,7 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
     </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2076,7 +2041,7 @@
       </c>
       <c r="L57" s="3"/>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2106,7 +2071,7 @@
       </c>
       <c r="L58" s="3"/>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2117,7 +2082,7 @@
         <v>649600</v>
       </c>
       <c r="F59" s="3">
-        <v>1248700</v>
+        <v>629300</v>
       </c>
       <c r="G59" s="3">
         <v>920700</v>
@@ -2136,7 +2101,7 @@
       </c>
       <c r="L59" s="3"/>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2166,7 +2131,7 @@
       </c>
       <c r="L60" s="3"/>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2196,7 +2161,7 @@
       </c>
       <c r="L61" s="3"/>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2226,7 +2191,7 @@
       </c>
       <c r="L62" s="3"/>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2256,7 +2221,7 @@
       </c>
       <c r="L63" s="3"/>
     </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2286,7 +2251,7 @@
       </c>
       <c r="L64" s="3"/>
     </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2316,7 +2281,7 @@
       </c>
       <c r="L65" s="3"/>
     </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2346,7 +2311,7 @@
       </c>
       <c r="L66" s="3"/>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2360,7 +2325,7 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
     </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2390,7 +2355,7 @@
       </c>
       <c r="L68" s="3"/>
     </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2420,7 +2385,7 @@
       </c>
       <c r="L69" s="3"/>
     </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2450,7 +2415,7 @@
       </c>
       <c r="L70" s="3"/>
     </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2480,7 +2445,7 @@
       </c>
       <c r="L71" s="3"/>
     </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -2510,7 +2475,7 @@
       </c>
       <c r="L72" s="3"/>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2540,7 +2505,7 @@
       </c>
       <c r="L73" s="3"/>
     </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2570,7 +2535,7 @@
       </c>
       <c r="L74" s="3"/>
     </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2600,7 +2565,7 @@
       </c>
       <c r="L75" s="3"/>
     </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -2630,7 +2595,7 @@
       </c>
       <c r="L76" s="3"/>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2660,12 +2625,12 @@
       </c>
       <c r="L77" s="3"/>
     </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
@@ -2695,7 +2660,7 @@
       </c>
       <c r="L80" s="2"/>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -2725,7 +2690,7 @@
       </c>
       <c r="L81" s="3"/>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2739,7 +2704,7 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
     </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2761,15 +2726,15 @@
       <c r="I83" s="3">
         <v>90900</v>
       </c>
-      <c r="J83" s="3">
-        <v>93000</v>
+      <c r="J83" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K83" s="3">
         <v>90700</v>
       </c>
       <c r="L83" s="3"/>
     </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2799,7 +2764,7 @@
       </c>
       <c r="L84" s="3"/>
     </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2829,7 +2794,7 @@
       </c>
       <c r="L85" s="3"/>
     </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2859,7 +2824,7 @@
       </c>
       <c r="L86" s="3"/>
     </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2889,7 +2854,7 @@
       </c>
       <c r="L87" s="3"/>
     </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2919,7 +2884,7 @@
       </c>
       <c r="L88" s="3"/>
     </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -2949,7 +2914,7 @@
       </c>
       <c r="L89" s="3"/>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2963,7 +2928,7 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
     </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2993,7 +2958,7 @@
       </c>
       <c r="L91" s="3"/>
     </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3023,7 +2988,7 @@
       </c>
       <c r="L92" s="3"/>
     </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3053,7 +3018,7 @@
       </c>
       <c r="L93" s="3"/>
     </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3075,15 +3040,15 @@
       <c r="I94" s="3">
         <v>-597400</v>
       </c>
-      <c r="J94" s="3">
-        <v>-27900</v>
+      <c r="J94" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K94" s="3">
         <v>-85600</v>
       </c>
       <c r="L94" s="3"/>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3097,7 +3062,7 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
     </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3127,7 +3092,7 @@
       </c>
       <c r="L96" s="3"/>
     </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3157,7 +3122,7 @@
       </c>
       <c r="L97" s="3"/>
     </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3187,7 +3152,7 @@
       </c>
       <c r="L98" s="3"/>
     </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3217,7 +3182,7 @@
       </c>
       <c r="L99" s="3"/>
     </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3239,15 +3204,15 @@
       <c r="I100" s="3">
         <v>93800</v>
       </c>
-      <c r="J100" s="3">
-        <v>-517800</v>
+      <c r="J100" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K100" s="3">
         <v>-95000</v>
       </c>
       <c r="L100" s="3"/>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3269,15 +3234,15 @@
       <c r="I101" s="3">
         <v>-14600</v>
       </c>
-      <c r="J101" s="3">
-        <v>-500</v>
+      <c r="J101" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K101" s="3">
         <v>-1100</v>
       </c>
       <c r="L101" s="3"/>
     </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
